--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1482.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1482.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.591449828066419</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>2.650517139761986</v>
+        <v>2.798804998397827</v>
       </c>
       <c r="C1">
+        <v>2.559326171875</v>
+      </c>
+      <c r="D1">
+        <v>2.863582372665405</v>
+      </c>
+      <c r="E1">
         <v>-1</v>
-      </c>
-      <c r="D1">
-        <v>1.239207920278287</v>
-      </c>
-      <c r="E1">
-        <v>0.5461119500322457</v>
       </c>
     </row>
   </sheetData>
